--- a/data-raw/justice_bio_Feb_2023.xlsx
+++ b/data-raw/justice_bio_Feb_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u1040068/Dropbox/High Court Project/Data Files/CURRENT DATASETS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD713C5-FB18-1E48-94DA-DDED55CFB4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93733F9-B4F0-E34F-8C82-76FD791890F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33040" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,9 +275,6 @@
     <t>thirdDegree</t>
   </si>
   <si>
-    <t>thirdDegreeInstituti</t>
-  </si>
-  <si>
     <t>thirdDegreeStatus</t>
   </si>
   <si>
@@ -525,6 +522,9 @@
   </si>
   <si>
     <t>1989/1990</t>
+  </si>
+  <si>
+    <t>thirdDegreeInstitution</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1059,10 @@
   <dimension ref="A1:FK85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="BO4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="BY3" sqref="BY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1898,238 +1898,238 @@
         <v>80</v>
       </c>
       <c r="BY3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CG3" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="CG3" s="15" t="s">
+      <c r="CH3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="CM3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CN3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="CO3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="CR3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="CS3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CS3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="CU3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="CV3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="CW3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="CX3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="CY3" s="1" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="CZ3" s="1" t="s">
+      <c r="DA3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="DA3" s="1" t="s">
+      <c r="DB3" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="DB3" s="15" t="s">
+      <c r="DC3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="DC3" s="1" t="s">
+      <c r="DD3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DE3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="DG3" s="1" t="s">
+      <c r="DH3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="DI3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="DI3" s="1" t="s">
+      <c r="DJ3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="DJ3" s="1" t="s">
+      <c r="DK3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="DK3" s="1" t="s">
+      <c r="DL3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="DM3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="DM3" s="1" t="s">
+      <c r="DN3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="DN3" s="1" t="s">
+      <c r="DO3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="DO3" s="1" t="s">
+      <c r="DP3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DP3" s="1" t="s">
+      <c r="DQ3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DQ3" s="1" t="s">
+      <c r="DR3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="DR3" s="1" t="s">
+      <c r="DS3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="DS3" s="1" t="s">
+      <c r="DT3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="DT3" s="1" t="s">
+      <c r="DU3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="DU3" s="1" t="s">
+      <c r="DV3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="DV3" s="1" t="s">
+      <c r="DW3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="DW3" s="1" t="s">
+      <c r="DX3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="DX3" s="1" t="s">
+      <c r="DY3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="DY3" s="1" t="s">
+      <c r="DZ3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="DZ3" s="1" t="s">
+      <c r="EA3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="EA3" s="1" t="s">
+      <c r="EB3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="EB3" s="1" t="s">
+      <c r="EC3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="EC3" s="1" t="s">
+      <c r="ED3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="ED3" s="1" t="s">
+      <c r="EE3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="EE3" s="1" t="s">
+      <c r="EF3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="EF3" s="1" t="s">
+      <c r="EG3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="EG3" s="1" t="s">
+      <c r="EH3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="EH3" s="1" t="s">
+      <c r="EI3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="EI3" s="1" t="s">
+      <c r="EJ3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="EJ3" s="1" t="s">
+      <c r="EK3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="EK3" s="1" t="s">
+      <c r="EL3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="EL3" s="1" t="s">
+      <c r="EM3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="EM3" s="1" t="s">
+      <c r="EN3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="EN3" s="1" t="s">
+      <c r="EO3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="EO3" s="1" t="s">
+      <c r="EP3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="EP3" s="1" t="s">
+      <c r="EQ3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="EQ3" s="1" t="s">
+      <c r="ER3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="ER3" s="1" t="s">
+      <c r="ES3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="ES3" s="1" t="s">
+      <c r="ET3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="ET3" s="1" t="s">
+      <c r="EU3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="EU3" s="1" t="s">
+      <c r="EV3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="EV3" s="1" t="s">
+      <c r="EW3" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="EW3" s="1" t="s">
+      <c r="EX3" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="EX3" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:167" x14ac:dyDescent="0.2">
@@ -2575,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="ES4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="ET4" s="2">
         <v>999</v>
@@ -2590,7 +2590,7 @@
         <v>999</v>
       </c>
       <c r="EX4" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:167" x14ac:dyDescent="0.2">
@@ -3051,7 +3051,7 @@
         <v>999</v>
       </c>
       <c r="EX5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.2">
@@ -3137,7 +3137,7 @@
         <v>2</v>
       </c>
       <c r="AB6" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC6" s="2">
         <v>1</v>
@@ -10768,7 +10768,7 @@
         <v>73</v>
       </c>
       <c r="DI22" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="DJ22" s="2">
         <v>1980</v>
@@ -13756,22 +13756,22 @@
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.2">
@@ -13816,7 +13816,7 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -14189,61 +14189,61 @@
   <sheetData>
     <row r="1" spans="1:19" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
